--- a/1.DELIVERABLE/1.10 EFFORT_LOG/Week30/BSS_EffortLog_HaiTran_Week30.xlsx
+++ b/1.DELIVERABLE/1.10 EFFORT_LOG/Week30/BSS_EffortLog_HaiTran_Week30.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -48,40 +48,28 @@
     <t>Mentor Meeting</t>
   </si>
   <si>
-    <t>Training Technical</t>
+    <t>WEEK: 30</t>
   </si>
   <si>
-    <t>Implement "Arrange Banner" function on server</t>
+    <t>24/4/2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement "Create Popups" function on server </t>
+    <t>Technical training</t>
   </si>
   <si>
-    <t>Implement "Arrange Popups" function on server</t>
+    <t>25/4/2017</t>
   </si>
   <si>
-    <t>Research publish code to server</t>
+    <t>Integrate project to host server</t>
   </si>
   <si>
-    <t>WEEK: 24</t>
+    <t>Fix release 1</t>
   </si>
   <si>
-    <t>13/3/2017</t>
+    <t>28/4/2017</t>
   </si>
   <si>
-    <t>14/3/2017</t>
-  </si>
-  <si>
-    <t>15/3/2017</t>
-  </si>
-  <si>
-    <t>17/3/2017</t>
-  </si>
-  <si>
-    <t>18/3/2017</t>
-  </si>
-  <si>
-    <t>16/3/2017</t>
+    <t>26/4/2017</t>
   </si>
 </sst>
 </file>
@@ -535,7 +523,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +573,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -691,11 +679,11 @@
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="9">
         <v>2</v>
@@ -730,19 +718,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G6" s="9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H6" s="9">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -771,19 +759,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G7" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -812,19 +800,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>17</v>
+      <c r="F8" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="G8" s="9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H8" s="9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -853,19 +841,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>20</v>
+      <c r="F9" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G9" s="9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H9" s="9">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -890,24 +878,12 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="10">
-        <v>6</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="9">
-        <v>7</v>
-      </c>
-      <c r="H10" s="9">
-        <v>8</v>
-      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -931,24 +907,12 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="10">
-        <v>7</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2</v>
-      </c>
-      <c r="H11" s="9">
-        <v>3</v>
-      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -29656,5 +29620,6 @@
     <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>